--- a/modeling/results/feature_imp_attr_text_tf-idf.xlsx
+++ b/modeling/results/feature_imp_attr_text_tf-idf.xlsx
@@ -22,304 +22,304 @@
     <t>Importance</t>
   </si>
   <si>
-    <t>liminar</t>
-  </si>
-  <si>
     <t>concessão</t>
   </si>
   <si>
+    <t>deferimento</t>
+  </si>
+  <si>
+    <t>concessão ordem</t>
+  </si>
+  <si>
+    <t>medidas cautelares</t>
+  </si>
+  <si>
     <t>deferi</t>
   </si>
   <si>
-    <t>concessão ordem</t>
-  </si>
-  <si>
-    <t>código</t>
-  </si>
-  <si>
-    <t>indeferiu</t>
-  </si>
-  <si>
-    <t>denegação ordem</t>
-  </si>
-  <si>
-    <t>corpus paulo</t>
-  </si>
-  <si>
-    <t>sob</t>
-  </si>
-  <si>
-    <t>delito</t>
-  </si>
-  <si>
-    <t>parecer</t>
-  </si>
-  <si>
-    <t>anos</t>
-  </si>
-  <si>
-    <t>medidas cautelares</t>
-  </si>
-  <si>
-    <t>revelou</t>
-  </si>
-  <si>
-    <t>vista</t>
+    <t>estado paulo</t>
+  </si>
+  <si>
+    <t>deferida</t>
+  </si>
+  <si>
+    <t>http sob</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>decisão proferida</t>
+  </si>
+  <si>
+    <t>opina concessão</t>
+  </si>
+  <si>
+    <t>justiça indeferiu</t>
+  </si>
+  <si>
+    <t>sob código</t>
+  </si>
+  <si>
+    <t>deferido</t>
+  </si>
+  <si>
+    <t>liminar hc</t>
+  </si>
+  <si>
+    <t>indeferiu liminarmente</t>
+  </si>
+  <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>substituição pena</t>
+  </si>
+  <si>
+    <t>código senha</t>
+  </si>
+  <si>
+    <t>senha relatório</t>
+  </si>
+  <si>
+    <t>contornos</t>
+  </si>
+  <si>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>república concessão</t>
+  </si>
+  <si>
+    <t>deferimento liminar</t>
+  </si>
+  <si>
+    <t>informado</t>
+  </si>
+  <si>
+    <t>informado análise</t>
+  </si>
+  <si>
+    <t>senha primeira</t>
+  </si>
+  <si>
+    <t>liminar deferida</t>
   </si>
   <si>
     <t>deferi pedido</t>
   </si>
   <si>
-    <t>reclusão</t>
-  </si>
-  <si>
-    <t>geral república</t>
-  </si>
-  <si>
-    <t>justiça indeferiu</t>
-  </si>
-  <si>
-    <t>assessor</t>
-  </si>
-  <si>
-    <t>questão</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>inadmissão</t>
-  </si>
-  <si>
-    <t>quatro</t>
-  </si>
-  <si>
-    <t>oliveira almeida</t>
-  </si>
-  <si>
-    <t>sucessivamente</t>
-  </si>
-  <si>
-    <t>fogo</t>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>cautelares previstas</t>
+  </si>
+  <si>
+    <t>opinou concessão</t>
+  </si>
+  <si>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>contornos impetração</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>restritiva direitos</t>
+  </si>
+  <si>
+    <t>vedação liberdade</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>guilherme</t>
+  </si>
+  <si>
+    <t>inconstitucional</t>
+  </si>
+  <si>
+    <t>enunciado</t>
   </si>
   <si>
     <t>liminar espécie</t>
   </si>
   <si>
-    <t>inadequação</t>
+    <t>impetração eis</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
+  </si>
+  <si>
+    <t>enunciado súmula</t>
+  </si>
+  <si>
+    <t>violência grave</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>liminar assessor</t>
+  </si>
+  <si>
+    <t>informações paciente</t>
+  </si>
+  <si>
+    <t>arquivado</t>
+  </si>
+  <si>
+    <t>xliii constituição</t>
+  </si>
+  <si>
+    <t>implicou deferimento</t>
+  </si>
+  <si>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>ser primário</t>
+  </si>
+  <si>
+    <t>revelou contornos</t>
+  </si>
+  <si>
+    <t>ministro gilson</t>
+  </si>
+  <si>
+    <t>autoridade judiciária</t>
+  </si>
+  <si>
+    <t>implemento liminar</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>preventiva irresignada</t>
   </si>
   <si>
     <t>ficou assim</t>
   </si>
   <si>
-    <t>primário</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>http sob</t>
-  </si>
-  <si>
-    <t>demais</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>aberto</t>
-  </si>
-  <si>
-    <t>sob código</t>
-  </si>
-  <si>
-    <t>prisão domiciliar</t>
-  </si>
-  <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>dra</t>
-  </si>
-  <si>
-    <t>informações paciente</t>
-  </si>
-  <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>relatório http</t>
-  </si>
-  <si>
-    <t>prazo prisão</t>
-  </si>
-  <si>
-    <t>código senha</t>
+    <t>afastamento enunciado</t>
+  </si>
+  <si>
+    <t>liminar suspender</t>
   </si>
   <si>
     <t>fundamentos insubsistência</t>
   </si>
   <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>impetração eis</t>
-  </si>
-  <si>
-    <t>informado análise</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>meio social</t>
-  </si>
-  <si>
-    <t>assessora dra</t>
-  </si>
-  <si>
-    <t>juízo primeira</t>
-  </si>
-  <si>
-    <t>ministra laurita</t>
-  </si>
-  <si>
-    <t>consequente</t>
-  </si>
-  <si>
-    <t>suficientemente</t>
-  </si>
-  <si>
-    <t>foro</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>mantendo</t>
-  </si>
-  <si>
-    <t>inocorrência</t>
-  </si>
-  <si>
-    <t>substitutiva recurso</t>
-  </si>
-  <si>
-    <t>writ defesa</t>
-  </si>
-  <si>
-    <t>contornos impetração</t>
-  </si>
-  <si>
-    <t>improvido</t>
-  </si>
-  <si>
-    <t>origem_SC - SANTA CATARINA</t>
-  </si>
-  <si>
-    <t>setembro seguinte</t>
-  </si>
-  <si>
-    <t>deu parcial</t>
-  </si>
-  <si>
-    <t>sucessivamente indeferimento</t>
-  </si>
-  <si>
-    <t>estariam ausentes</t>
-  </si>
-  <si>
-    <t>deficiência</t>
-  </si>
-  <si>
-    <t>defensor</t>
-  </si>
-  <si>
-    <t>idôneo</t>
-  </si>
-  <si>
-    <t>liminar assessora</t>
-  </si>
-  <si>
-    <t>interceptações</t>
-  </si>
-  <si>
-    <t>virtude suposta</t>
-  </si>
-  <si>
-    <t>mediante implementada</t>
-  </si>
-  <si>
-    <t>integral</t>
-  </si>
-  <si>
-    <t>realizadas</t>
-  </si>
-  <si>
-    <t>habeas contra</t>
-  </si>
-  <si>
-    <t>restrição liberdade</t>
-  </si>
-  <si>
-    <t>homicídio duplamente</t>
-  </si>
-  <si>
-    <t>presente ordem</t>
-  </si>
-  <si>
-    <t>tornando</t>
-  </si>
-  <si>
-    <t>armas fogo</t>
-  </si>
-  <si>
-    <t>meio imposta</t>
-  </si>
-  <si>
-    <t>estatuto</t>
-  </si>
-  <si>
-    <t>motivado</t>
-  </si>
-  <si>
-    <t>assuntos CERCEAMENTO DE DEFESA</t>
-  </si>
-  <si>
-    <t>título condenatório</t>
-  </si>
-  <si>
-    <t>preventivamente desde</t>
-  </si>
-  <si>
-    <t>conjecturas</t>
-  </si>
-  <si>
-    <t>formalização</t>
-  </si>
-  <si>
-    <t>tutela cautelar</t>
-  </si>
-  <si>
-    <t>alusivo</t>
-  </si>
-  <si>
-    <t>comercial</t>
-  </si>
-  <si>
-    <t>inexistente ilegalidade</t>
-  </si>
-  <si>
-    <t>mérito assevera</t>
-  </si>
-  <si>
-    <t>buscam alfim</t>
-  </si>
-  <si>
-    <t>conseqüente</t>
-  </si>
-  <si>
-    <t>tramitar</t>
+    <t>superação súmula</t>
+  </si>
+  <si>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>apreciou presente</t>
+  </si>
+  <si>
+    <t>formalizado ato</t>
+  </si>
+  <si>
+    <t>preventiva fundamentos</t>
+  </si>
+  <si>
+    <t>decretada desfavor</t>
+  </si>
+  <si>
+    <t>processo formalizado</t>
+  </si>
+  <si>
+    <t>assuntos COMPETÊNCIA DO MP</t>
+  </si>
+  <si>
+    <t>arquivado definitivo</t>
+  </si>
+  <si>
+    <t>resumiu apreciou</t>
+  </si>
+  <si>
+    <t>deferida assessoria</t>
+  </si>
+  <si>
+    <t>resumida prisão</t>
+  </si>
+  <si>
+    <t>liminarmente pedido</t>
+  </si>
+  <si>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>cautelar pois</t>
+  </si>
+  <si>
+    <t>assuntos LICITAÇÕES</t>
+  </si>
+  <si>
+    <t>deserção</t>
+  </si>
+  <si>
+    <t>Relator_OCTAVIO GALLOTTI</t>
+  </si>
+  <si>
+    <t>assuntos FIANÇA</t>
+  </si>
+  <si>
+    <t>infligir</t>
+  </si>
+  <si>
+    <t>assuntos FURTO (ART. 155)</t>
+  </si>
+  <si>
+    <t>Relator_ILMAR GALVÃO</t>
+  </si>
+  <si>
+    <t>assuntos HABEAS CORPUS - LIBERATÓRIO</t>
+  </si>
+  <si>
+    <t>infligir punição</t>
+  </si>
+  <si>
+    <t>princípio liberdade</t>
+  </si>
+  <si>
+    <t>assuntos DESCLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>assuntos TRANSFERÊNCIA DE PRESO</t>
+  </si>
+  <si>
+    <t>assuntos INDEFERIMENTO</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.0583611140346602</v>
+        <v>0.06490159479959634</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.05163086693603074</v>
+        <v>0.05124291792349907</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.04248488578098425</v>
+        <v>0.04827604624085589</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.042025172021977</v>
+        <v>0.03563059536571431</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.0399807459024273</v>
+        <v>0.03513785384908187</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.0335001238175325</v>
+        <v>0.0313291980175552</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.03056585228658427</v>
+        <v>0.02823767009249943</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.02968749615581582</v>
+        <v>0.02114643313902335</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.02880972902218092</v>
+        <v>0.0204238995421904</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.0277811903552418</v>
+        <v>0.01938247018184901</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.02724316082509968</v>
+        <v>0.019170533247881</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.02498547060732029</v>
+        <v>0.01841696007489789</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.02486343473040737</v>
+        <v>0.01747886862717815</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.02247081630009115</v>
+        <v>0.01680455908598502</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.02204937302930141</v>
+        <v>0.01493407218640386</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.02145300866899324</v>
+        <v>0.0147040100667857</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.01905083841038668</v>
+        <v>0.01431222720330229</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.01704171488835633</v>
+        <v>0.01414221099243719</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01569047225585228</v>
+        <v>0.01401797418593414</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01438016486879234</v>
+        <v>0.01379993404496209</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.01435445685277544</v>
+        <v>0.01359465005429045</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.01307606187817628</v>
+        <v>0.01331271078318258</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01230380996584642</v>
+        <v>0.01301077293890147</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01162017018845076</v>
+        <v>0.01270051933517681</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01156985044679919</v>
+        <v>0.01244357748662026</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01108810786230817</v>
+        <v>0.01226245920901998</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01107175798101613</v>
+        <v>0.01212779375132934</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.0108625134435036</v>
+        <v>0.01147813341404517</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.01018780775496177</v>
+        <v>0.01116305841440247</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.01018190094324279</v>
+        <v>0.01112999524438409</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.009896614334830453</v>
+        <v>0.01070496489532001</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.009800678877774123</v>
+        <v>0.01060498099687332</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.009178524313204319</v>
+        <v>0.01044996819882532</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.00878004345853986</v>
+        <v>0.01029365558644738</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.008760947076820432</v>
+        <v>0.01022266976481249</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.008725139088484763</v>
+        <v>0.009931354921257345</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.008586462810984647</v>
+        <v>0.009908114213985256</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.008509568593449379</v>
+        <v>0.009715424520743832</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.008362660566868633</v>
+        <v>0.009431285956547868</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.008321121845043519</v>
+        <v>0.009287746681876874</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.008219390534330229</v>
+        <v>0.009108402712848249</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.007240918486518032</v>
+        <v>0.008944817605659747</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.007225116965635691</v>
+        <v>0.008816301550350866</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.007142348853998115</v>
+        <v>0.008566560973069893</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.007082878522536076</v>
+        <v>0.008319217395645531</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.007035415848948265</v>
+        <v>0.008292809341977476</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.00701473860304771</v>
+        <v>0.008177815348131631</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.006993342041760636</v>
+        <v>0.008089100351876493</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.006924401331507596</v>
+        <v>0.007760699540407437</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.006513263424971685</v>
+        <v>0.007693222650534965</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.006486108133044589</v>
+        <v>0.0076727217200785</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.006176928333380369</v>
+        <v>0.007121329764284224</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.005930745716571112</v>
+        <v>0.007057034555364283</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.005569714873700382</v>
+        <v>0.007044355614440106</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.005485036660272719</v>
+        <v>0.006632949892473841</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.005370667566789723</v>
+        <v>0.006510738902326442</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.005107289714268285</v>
+        <v>0.006111075644995305</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.00486388329495787</v>
+        <v>0.006093130405498799</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.004605121488984575</v>
+        <v>0.006002907723687703</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.004322684909630376</v>
+        <v>0.005999794388729288</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.004105734574100833</v>
+        <v>0.005951128174605922</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.004059617954025841</v>
+        <v>0.005604947499877316</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.003899520051192597</v>
+        <v>0.005357446509358966</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.003435712681134183</v>
+        <v>0.005338896171214614</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.003257693899803655</v>
+        <v>0.005021242789292216</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.002848063087719012</v>
+        <v>0.004862137453410869</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.00282734700813461</v>
+        <v>0.004858147134506812</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.002632699410564014</v>
+        <v>0.004729467179394053</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.002613829994633286</v>
+        <v>0.004708245617356635</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.002540982337750261</v>
+        <v>0.004627669495451178</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.002537537195903855</v>
+        <v>0.004339136561388376</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.002496696915946837</v>
+        <v>0.003890615352427667</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.002487935528519371</v>
+        <v>0.003844481103357468</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.002435996482415591</v>
+        <v>0.003818399889372281</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.002290970091934523</v>
+        <v>0.003512720745246827</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.002214609123117771</v>
+        <v>0.003488454258706381</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.002125789093978714</v>
+        <v>0.003206862421992851</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.002117965454462321</v>
+        <v>0.003167507669241422</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.00204954674855988</v>
+        <v>0.002896763160158381</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.002030143824498142</v>
+        <v>0.002821405503155114</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.001879151036876198</v>
+        <v>0.002677772888762005</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.001631116574644169</v>
+        <v>0.00264714083231892</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.001595280320692912</v>
+        <v>0.002418438941448248</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.001561959562953279</v>
+        <v>0.00238343608801911</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.001377195861274166</v>
+        <v>0.002079229134360803</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.001317885003329709</v>
+        <v>0.001859108963830438</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.001276628161370427</v>
+        <v>0.001709035032189669</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.00122209376537685</v>
+        <v>0.001502664961680194</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.001197241202277361</v>
+        <v>0.001308540972349001</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.001095935842314028</v>
+        <v>0.001096841184405399</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.001069587638105948</v>
+        <v>0.001033721720471006</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.0009841623918138086</v>
+        <v>0.001029313307346134</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.0009583107737940207</v>
+        <v>0.0009693832092918109</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.0007688759242878953</v>
+        <v>0.000915117500093035</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.0007433229994664556</v>
+        <v>0.0008385714099565961</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.0005996550269345012</v>
+        <v>0.000828044894076374</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.0005218718276427973</v>
+        <v>0.0005006149610973316</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.0003904295494587349</v>
+        <v>0.0004980238322796609</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.000123796071894912</v>
+        <v>0.000259096995622722</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>7.328452112625258E-05</v>
+        <v>0.0001213771628310411</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/results/feature_imp_attr_text_tf-idf.xlsx
+++ b/modeling/results/feature_imp_attr_text_tf-idf.xlsx
@@ -25,22 +25,34 @@
     <t>concessão</t>
   </si>
   <si>
+    <t>concessão ordem</t>
+  </si>
+  <si>
     <t>deferimento</t>
   </si>
   <si>
-    <t>concessão ordem</t>
-  </si>
-  <si>
-    <t>medidas cautelares</t>
-  </si>
-  <si>
     <t>deferi</t>
   </si>
   <si>
+    <t>deferida</t>
+  </si>
+  <si>
     <t>estado paulo</t>
   </si>
   <si>
-    <t>deferida</t>
+    <t>decisão proferida</t>
+  </si>
+  <si>
+    <t>justiça indeferiu</t>
+  </si>
+  <si>
+    <t>opina concessão</t>
+  </si>
+  <si>
+    <t>opina deferimento</t>
+  </si>
+  <si>
+    <t>indeferiu liminarmente</t>
   </si>
   <si>
     <t>http sob</t>
@@ -49,226 +61,232 @@
     <t>http</t>
   </si>
   <si>
-    <t>decisão proferida</t>
-  </si>
-  <si>
-    <t>opina concessão</t>
-  </si>
-  <si>
-    <t>justiça indeferiu</t>
+    <t>deferido</t>
+  </si>
+  <si>
+    <t>deferi pedido</t>
+  </si>
+  <si>
+    <t>liminar hc</t>
+  </si>
+  <si>
+    <t>liminar deferida</t>
+  </si>
+  <si>
+    <t>substituição pena</t>
+  </si>
+  <si>
+    <t>suspender</t>
+  </si>
+  <si>
+    <t>ordem prisão</t>
+  </si>
+  <si>
+    <t>outro motivo</t>
   </si>
   <si>
     <t>sob código</t>
   </si>
   <si>
-    <t>deferido</t>
-  </si>
-  <si>
-    <t>liminar hc</t>
-  </si>
-  <si>
-    <t>indeferiu liminarmente</t>
-  </si>
-  <si>
-    <t>opina deferimento</t>
-  </si>
-  <si>
-    <t>substituição pena</t>
+    <t>pública estado</t>
+  </si>
+  <si>
+    <t>cautelares previstas</t>
   </si>
   <si>
     <t>código senha</t>
   </si>
   <si>
+    <t>opinou concessão</t>
+  </si>
+  <si>
+    <t>precário</t>
+  </si>
+  <si>
+    <t>república concessão</t>
+  </si>
+  <si>
+    <t>guilherme</t>
+  </si>
+  <si>
+    <t>enunciado</t>
+  </si>
+  <si>
     <t>senha relatório</t>
   </si>
   <si>
+    <t>precário efêmero</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>sobrestamento</t>
+  </si>
+  <si>
+    <t>stj indeferiu</t>
+  </si>
+  <si>
+    <t>efêmero</t>
+  </si>
+  <si>
+    <t>campo precário</t>
+  </si>
+  <si>
+    <t>senha primeira</t>
+  </si>
+  <si>
+    <t>xliii constituição</t>
+  </si>
+  <si>
+    <t>enunciado súmula</t>
+  </si>
+  <si>
+    <t>cento</t>
+  </si>
+  <si>
+    <t>restritiva</t>
+  </si>
+  <si>
+    <t>gabinete prestou</t>
+  </si>
+  <si>
+    <t>violência grave</t>
+  </si>
+  <si>
+    <t>inconstitucional</t>
+  </si>
+  <si>
+    <t>análise pedido</t>
+  </si>
+  <si>
+    <t>ficou</t>
+  </si>
+  <si>
+    <t>restritiva direitos</t>
+  </si>
+  <si>
+    <t>arquivado</t>
+  </si>
+  <si>
+    <t>informado</t>
+  </si>
+  <si>
+    <t>vedação liberdade</t>
+  </si>
+  <si>
+    <t>relatório http</t>
+  </si>
+  <si>
+    <t>implicou deferimento</t>
+  </si>
+  <si>
+    <t>fundamentos insubsistência</t>
+  </si>
+  <si>
+    <t>proferida ministro</t>
+  </si>
+  <si>
+    <t>liberdade restritiva</t>
+  </si>
+  <si>
+    <t>requer medida</t>
+  </si>
+  <si>
     <t>contornos</t>
   </si>
   <si>
-    <t>relatório http</t>
-  </si>
-  <si>
-    <t>ordem prisão</t>
-  </si>
-  <si>
-    <t>república concessão</t>
-  </si>
-  <si>
-    <t>deferimento liminar</t>
-  </si>
-  <si>
-    <t>informado</t>
+    <t>preventiva irresignada</t>
+  </si>
+  <si>
+    <t>ministro gilson</t>
+  </si>
+  <si>
+    <t>liminar espécie</t>
+  </si>
+  <si>
+    <t>assim resumida</t>
+  </si>
+  <si>
+    <t>mérito deste</t>
+  </si>
+  <si>
+    <t>assim revelou</t>
+  </si>
+  <si>
+    <t>efeitos ordem</t>
+  </si>
+  <si>
+    <t>preventiva fundamentos</t>
+  </si>
+  <si>
+    <t>resumida</t>
+  </si>
+  <si>
+    <t>eis informado</t>
+  </si>
+  <si>
+    <t>superação súmula</t>
   </si>
   <si>
     <t>informado análise</t>
   </si>
   <si>
-    <t>senha primeira</t>
-  </si>
-  <si>
-    <t>liminar deferida</t>
-  </si>
-  <si>
-    <t>deferi pedido</t>
-  </si>
-  <si>
-    <t>senha</t>
-  </si>
-  <si>
-    <t>cautelares previstas</t>
-  </si>
-  <si>
-    <t>opinou concessão</t>
-  </si>
-  <si>
-    <t>ficou</t>
+    <t>revelou contornos</t>
   </si>
   <si>
     <t>contornos impetração</t>
   </si>
   <si>
-    <t>análise pedido</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>assim revelou</t>
-  </si>
-  <si>
-    <t>restritiva direitos</t>
-  </si>
-  <si>
-    <t>vedação liberdade</t>
-  </si>
-  <si>
-    <t>stj indeferiu</t>
-  </si>
-  <si>
-    <t>guilherme</t>
-  </si>
-  <si>
-    <t>inconstitucional</t>
-  </si>
-  <si>
-    <t>enunciado</t>
-  </si>
-  <si>
-    <t>liminar espécie</t>
+    <t>suspender efeitos</t>
+  </si>
+  <si>
+    <t>ficou assim</t>
   </si>
   <si>
     <t>impetração eis</t>
   </si>
   <si>
-    <t>sobrestamento</t>
-  </si>
-  <si>
-    <t>outro motivo</t>
-  </si>
-  <si>
-    <t>enunciado súmula</t>
-  </si>
-  <si>
-    <t>violência grave</t>
-  </si>
-  <si>
-    <t>proferida ministro</t>
+    <t>ser primário</t>
+  </si>
+  <si>
+    <t>espécie ficou</t>
   </si>
   <si>
     <t>liminar assessor</t>
   </si>
   <si>
-    <t>informações paciente</t>
-  </si>
-  <si>
-    <t>arquivado</t>
-  </si>
-  <si>
-    <t>xliii constituição</t>
-  </si>
-  <si>
-    <t>implicou deferimento</t>
-  </si>
-  <si>
-    <t>resumida</t>
-  </si>
-  <si>
-    <t>eis informado</t>
-  </si>
-  <si>
-    <t>efeitos ordem</t>
-  </si>
-  <si>
-    <t>ser primário</t>
-  </si>
-  <si>
-    <t>revelou contornos</t>
-  </si>
-  <si>
-    <t>ministro gilson</t>
-  </si>
-  <si>
-    <t>autoridade judiciária</t>
-  </si>
-  <si>
-    <t>implemento liminar</t>
-  </si>
-  <si>
-    <t>espécie ficou</t>
-  </si>
-  <si>
-    <t>assim resumida</t>
-  </si>
-  <si>
-    <t>gabinete prestou</t>
-  </si>
-  <si>
-    <t>preventiva irresignada</t>
-  </si>
-  <si>
-    <t>ficou assim</t>
+    <t>liminar suspender</t>
+  </si>
+  <si>
+    <t>arquivado definitivo</t>
+  </si>
+  <si>
+    <t>inicial aberto</t>
+  </si>
+  <si>
+    <t>aurélio decisão</t>
+  </si>
+  <si>
+    <t>decretada desfavor</t>
+  </si>
+  <si>
+    <t>formalizado ato</t>
+  </si>
+  <si>
+    <t>deferida assessoria</t>
+  </si>
+  <si>
+    <t>processo formalizado</t>
   </si>
   <si>
     <t>afastamento enunciado</t>
   </si>
   <si>
-    <t>liminar suspender</t>
-  </si>
-  <si>
-    <t>fundamentos insubsistência</t>
-  </si>
-  <si>
-    <t>superação súmula</t>
-  </si>
-  <si>
-    <t>suspender efeitos</t>
-  </si>
-  <si>
-    <t>apreciou presente</t>
-  </si>
-  <si>
-    <t>formalizado ato</t>
-  </si>
-  <si>
-    <t>preventiva fundamentos</t>
-  </si>
-  <si>
-    <t>decretada desfavor</t>
-  </si>
-  <si>
-    <t>processo formalizado</t>
-  </si>
-  <si>
     <t>assuntos COMPETÊNCIA DO MP</t>
   </si>
   <si>
-    <t>arquivado definitivo</t>
-  </si>
-  <si>
-    <t>resumiu apreciou</t>
-  </si>
-  <si>
-    <t>deferida assessoria</t>
+    <t>deserção</t>
   </si>
   <si>
     <t>resumida prisão</t>
@@ -277,49 +295,31 @@
     <t>liminarmente pedido</t>
   </si>
   <si>
-    <t>aurélio decisão</t>
-  </si>
-  <si>
-    <t>cautelar pois</t>
+    <t>Relator_ILMAR GALVÃO</t>
+  </si>
+  <si>
+    <t>Relator_OCTAVIO GALLOTTI</t>
   </si>
   <si>
     <t>assuntos LICITAÇÕES</t>
   </si>
   <si>
-    <t>deserção</t>
-  </si>
-  <si>
-    <t>Relator_OCTAVIO GALLOTTI</t>
+    <t>assuntos HABEAS CORPUS - LIBERATÓRIO</t>
   </si>
   <si>
     <t>assuntos FIANÇA</t>
   </si>
   <si>
-    <t>infligir</t>
-  </si>
-  <si>
     <t>assuntos FURTO (ART. 155)</t>
   </si>
   <si>
-    <t>Relator_ILMAR GALVÃO</t>
-  </si>
-  <si>
-    <t>assuntos HABEAS CORPUS - LIBERATÓRIO</t>
-  </si>
-  <si>
-    <t>infligir punição</t>
-  </si>
-  <si>
-    <t>princípio liberdade</t>
+    <t>assuntos TRANSFERÊNCIA DE PRESO</t>
+  </si>
+  <si>
+    <t>assuntos INDEFERIMENTO</t>
   </si>
   <si>
     <t>assuntos DESCLASSIFICAÇÃO</t>
-  </si>
-  <si>
-    <t>assuntos TRANSFERÊNCIA DE PRESO</t>
-  </si>
-  <si>
-    <t>assuntos INDEFERIMENTO</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.06490159479959634</v>
+        <v>0.09203647904828242</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.05124291792349907</v>
+        <v>0.06236181219262461</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.04827604624085589</v>
+        <v>0.05629217685724889</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.03563059536571431</v>
+        <v>0.0522440616913375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.03513785384908187</v>
+        <v>0.03297612061894678</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.0313291980175552</v>
+        <v>0.02769780184676894</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.02823767009249943</v>
+        <v>0.02201089191337677</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.02114643313902335</v>
+        <v>0.01766432706541668</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.0204238995421904</v>
+        <v>0.01742244474052456</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.01938247018184901</v>
+        <v>0.01683217537724252</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.019170533247881</v>
+        <v>0.01623493364058266</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.01841696007489789</v>
+        <v>0.01594805628232545</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.01747886862717815</v>
+        <v>0.01576186805358227</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.01680455908598502</v>
+        <v>0.01553116771042444</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.01493407218640386</v>
+        <v>0.01538273356726509</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.0147040100667857</v>
+        <v>0.0152078176782163</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.01431222720330229</v>
+        <v>0.01296913459042583</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.01414221099243719</v>
+        <v>0.01265931123751979</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01401797418593414</v>
+        <v>0.01153898048894184</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01379993404496209</v>
+        <v>0.01135866749492308</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.01359465005429045</v>
+        <v>0.01113177320187106</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.01331271078318258</v>
+        <v>0.01090356373223705</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01301077293890147</v>
+        <v>0.01071822292822724</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.01270051933517681</v>
+        <v>0.0105099182097907</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01244357748662026</v>
+        <v>0.01028783159644144</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.01226245920901998</v>
+        <v>0.0101256748923334</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01212779375132934</v>
+        <v>0.009737553225999441</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.01147813341404517</v>
+        <v>0.009698620174973837</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.01116305841440247</v>
+        <v>0.009452602980394633</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.01112999524438409</v>
+        <v>0.009443247241493299</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.01070496489532001</v>
+        <v>0.009315099204118849</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.01060498099687332</v>
+        <v>0.009243519026625856</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.01044996819882532</v>
+        <v>0.009106248879852495</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.01029365558644738</v>
+        <v>0.00906064528415656</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.01022266976481249</v>
+        <v>0.008933987608838788</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.009931354921257345</v>
+        <v>0.008857839406116666</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.009908114213985256</v>
+        <v>0.008806521295250938</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +992,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.009715424520743832</v>
+        <v>0.00880098415506721</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.009431285956547868</v>
+        <v>0.008782260281460655</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.009287746681876874</v>
+        <v>0.008583691216316289</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.009108402712848249</v>
+        <v>0.008476114327821818</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.008944817605659747</v>
+        <v>0.008260182177633024</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.008816301550350866</v>
+        <v>0.008211481157020509</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.008566560973069893</v>
+        <v>0.007859974811744342</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.008319217395645531</v>
+        <v>0.007619671600943713</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.008292809341977476</v>
+        <v>0.007575054204609654</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.008177815348131631</v>
+        <v>0.007559024071129626</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.008089100351876493</v>
+        <v>0.007318909652379428</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.007760699540407437</v>
+        <v>0.007248269362521092</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.007693222650534965</v>
+        <v>0.007122525882380374</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.0076727217200785</v>
+        <v>0.00695065751223095</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.007121329764284224</v>
+        <v>0.006623812870160779</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.007057034555364283</v>
+        <v>0.006517276104298752</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.007044355614440106</v>
+        <v>0.00620350625924812</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.006632949892473841</v>
+        <v>0.006110611862347477</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.006510738902326442</v>
+        <v>0.006011481009255341</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.006111075644995305</v>
+        <v>0.005924497595501976</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.006093130405498799</v>
+        <v>0.005792185531556039</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.006002907723687703</v>
+        <v>0.005732360833568286</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.005999794388729288</v>
+        <v>0.005546106545967535</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.005951128174605922</v>
+        <v>0.005507956839813923</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.005604947499877316</v>
+        <v>0.005478870206552871</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.005357446509358966</v>
+        <v>0.005377228587531027</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.005338896171214614</v>
+        <v>0.005331413525623763</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.005021242789292216</v>
+        <v>0.005197248157576466</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.004862137453410869</v>
+        <v>0.005109706416714235</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.004858147134506812</v>
+        <v>0.005074486357477026</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.004729467179394053</v>
+        <v>0.004850174411781049</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.004708245617356635</v>
+        <v>0.004613585955578858</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.004627669495451178</v>
+        <v>0.004375559317557966</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.004339136561388376</v>
+        <v>0.004302646592581899</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.003890615352427667</v>
+        <v>0.004253773855569222</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.003844481103357468</v>
+        <v>0.004253034047696536</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.003818399889372281</v>
+        <v>0.004235254301526525</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.003512720745246827</v>
+        <v>0.004056734816733418</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.003488454258706381</v>
+        <v>0.004012526508434699</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.003206862421992851</v>
+        <v>0.003960378916457694</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.003167507669241422</v>
+        <v>0.003859579707860898</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.002896763160158381</v>
+        <v>0.00363199378892531</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.002821405503155114</v>
+        <v>0.003477388072917106</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.002677772888762005</v>
+        <v>0.003198526201963921</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.00264714083231892</v>
+        <v>0.003195141890988679</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.002418438941448248</v>
+        <v>0.002996314100464308</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.00238343608801911</v>
+        <v>0.002973291536236586</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.002079229134360803</v>
+        <v>0.002931639668420813</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.001859108963830438</v>
+        <v>0.002838203126801615</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.001709035032189669</v>
+        <v>0.002738850202269522</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.001502664961680194</v>
+        <v>0.002676085493463135</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.001308540972349001</v>
+        <v>0.002652378188840854</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.001096841184405399</v>
+        <v>0.00216880644327331</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.001033721720471006</v>
+        <v>0.001913691621800389</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.001029313307346134</v>
+        <v>0.001840003557898161</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.0009693832092918109</v>
+        <v>0.001762212718540446</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.000915117500093035</v>
+        <v>0.00157854136907999</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.0008385714099565961</v>
+        <v>0.0008260987356253273</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.000828044894076374</v>
+        <v>0.0007635284523459851</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.0005006149610973316</v>
+        <v>0.0007247216559065564</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.0004980238322796609</v>
+        <v>0.0003985287681557125</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.000259096995622722</v>
+        <v>0.0002995099733392033</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0.0001213771628310411</v>
+        <v>0.0002699158998131217</v>
       </c>
     </row>
   </sheetData>
